--- a/archive/2022.xlsx
+++ b/archive/2022.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
-    <sheet name="relatorio anual" sheetId="14" r:id="rId1"/>
-    <sheet name="fevereiro" sheetId="1" r:id="rId2"/>
-    <sheet name="marco" sheetId="11" r:id="rId3"/>
-    <sheet name="abril" sheetId="12" r:id="rId4"/>
-    <sheet name="maio" sheetId="13" r:id="rId5"/>
-    <sheet name="julho" sheetId="5" r:id="rId6"/>
-    <sheet name="junho" sheetId="6" r:id="rId7"/>
-    <sheet name="agosto" sheetId="7" r:id="rId8"/>
-    <sheet name="setembro" sheetId="8" r:id="rId9"/>
-    <sheet name="outubro" sheetId="9" r:id="rId10"/>
-    <sheet name="novembro" sheetId="10" r:id="rId11"/>
-    <sheet name="dezembro" sheetId="15" r:id="rId12"/>
+    <sheet name="percentagem" sheetId="16" r:id="rId1"/>
+    <sheet name="relatorio anual" sheetId="14" r:id="rId2"/>
+    <sheet name="fevereiro" sheetId="1" r:id="rId3"/>
+    <sheet name="marco" sheetId="11" r:id="rId4"/>
+    <sheet name="abril" sheetId="12" r:id="rId5"/>
+    <sheet name="maio" sheetId="13" r:id="rId6"/>
+    <sheet name="julho" sheetId="5" r:id="rId7"/>
+    <sheet name="junho" sheetId="6" r:id="rId8"/>
+    <sheet name="agosto" sheetId="7" r:id="rId9"/>
+    <sheet name="setembro" sheetId="8" r:id="rId10"/>
+    <sheet name="outubro" sheetId="9" r:id="rId11"/>
+    <sheet name="novembro" sheetId="10" r:id="rId12"/>
+    <sheet name="dezembro" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="201">
   <si>
     <t>DATA</t>
   </si>
@@ -638,6 +639,9 @@
   </si>
   <si>
     <t>CAPITAL INICIAL online</t>
+  </si>
+  <si>
+    <t>todos os investimentos foram feitos com 5%</t>
   </si>
 </sst>
 </file>
@@ -2083,11 +2087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="220310128"/>
-        <c:axId val="219427344"/>
+        <c:axId val="258306256"/>
+        <c:axId val="212546992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220310128"/>
+        <c:axId val="258306256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2133,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219427344"/>
+        <c:crossAx val="212546992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2137,7 +2141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219427344"/>
+        <c:axId val="212546992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2191,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220310128"/>
+        <c:crossAx val="258306256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3105,205 +3109,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="50">
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>44806</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1.96</v>
+      </c>
+      <c r="D2" s="11">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="7">
+        <f>C2*D$27</f>
+        <v>13720</v>
+      </c>
+      <c r="I2" s="7">
+        <f>H2-D$27</f>
+        <v>6720</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>44814</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="23">
+        <v>2.63</v>
+      </c>
+      <c r="D3" s="11">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="7">
+        <f>C3*D$27</f>
+        <v>18410</v>
+      </c>
+      <c r="I3" s="7">
+        <f>H3-D$27</f>
+        <v>11410</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>44822</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="51"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="I4" s="7">
+        <f>H4-D26</f>
+        <v>-3500</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>44822</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1.95</v>
+      </c>
+      <c r="D5" s="11">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="7">
+        <f>C5*D26</f>
+        <v>6825</v>
+      </c>
+      <c r="I5" s="7">
+        <f>H5-D26</f>
+        <v>3325</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>44811</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1.95</v>
+      </c>
+      <c r="D6" s="11">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I8" si="0">H6-D$25</f>
+        <v>-2800</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>44814</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="D7" s="11">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:H8" si="1">C7*D$25</f>
+        <v>5320</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>2520</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>44834</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="50">
-        <v>0</v>
-      </c>
-      <c r="D3" s="51"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="50">
-        <f>marco!E23</f>
-        <v>0.20055000000000001</v>
-      </c>
-      <c r="D4" s="51"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="50">
-        <f>abril!E36</f>
-        <v>0.58372999999999997</v>
-      </c>
-      <c r="D5" s="51"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="D8" s="1">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>5600</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f>COUNT(D2:D8)</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5">
+        <f>D14-D15</f>
         <v>5</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="50">
-        <f>maio!E31</f>
-        <v>0.48692000000000002</v>
-      </c>
-      <c r="D6" s="51"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="50">
-        <f>julho!E24</f>
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="D7" s="51"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="50">
-        <f>junho!E25</f>
-        <v>2.9399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="50">
-        <f>agosto!E33</f>
-        <v>0.21027999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="50">
-        <f>setembro!E29</f>
+      <c r="E16" s="1"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f>D16/D14*100</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f>1/D19*100</f>
+        <v>48.64489228630994</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <f>SUM(C2:C8)/D14</f>
+        <v>2.0557142857142856</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5">
+        <f>D17-D18</f>
+        <v>22.783679142261491</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5">
+        <f>D29/1</f>
+        <v>20.474999999999998</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="7">
+        <f>D23/100</f>
+        <v>1000</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="57">
+        <f>D$24*2.8</f>
+        <v>2800</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="55">
+        <f>D$24*3.5</f>
+        <v>3500</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="56">
+        <f>D24*7</f>
+        <v>7000</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="7">
+        <f>SUM(I2:I8)</f>
+        <v>20475</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <f>D28/D23*100</f>
+        <v>20.474999999999998</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D29/100</f>
         <v>0.20474999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="50">
-        <f>outubro!E31</f>
-        <v>0.2422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="50">
-        <f>novembro!E31</f>
-        <v>0.22512000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="50">
-        <f>dezembro!E28</f>
-        <v>0.56069999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="52">
-        <f>SUM(C2:C12)</f>
-        <v>2.3327499999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="53">
-        <f>C14/11*100</f>
-        <v>21.206818181818178</v>
-      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F15:G30">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
+      <formula>-240.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I12">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -4121,7 +4630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -4876,11 +5385,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -5625,6 +6134,206 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="50">
+        <v>0</v>
+      </c>
+      <c r="D2" s="51"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="50">
+        <v>0</v>
+      </c>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="50">
+        <f>marco!E23</f>
+        <v>0.20055000000000001</v>
+      </c>
+      <c r="D4" s="51"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="50">
+        <f>abril!E36</f>
+        <v>0.58372999999999997</v>
+      </c>
+      <c r="D5" s="51"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="50">
+        <f>maio!E31</f>
+        <v>0.48692000000000002</v>
+      </c>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="50">
+        <f>julho!E24</f>
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="D7" s="51"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="50">
+        <f>junho!E25</f>
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="50">
+        <f>agosto!E33</f>
+        <v>0.21027999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="50">
+        <f>setembro!E29</f>
+        <v>0.20474999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="50">
+        <f>outubro!E31</f>
+        <v>0.2422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="50">
+        <f>novembro!E31</f>
+        <v>0.22512000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="50">
+        <f>dezembro!E28</f>
+        <v>0.56069999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="52">
+        <f>SUM(C2:C12)</f>
+        <v>2.3327499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="53">
+        <f>C14/11*100</f>
+        <v>21.206818181818178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
@@ -6249,7 +6958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L215"/>
   <sheetViews>
@@ -9519,7 +10228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L81"/>
   <sheetViews>
@@ -11133,7 +11842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
@@ -12104,7 +12813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -12788,7 +13497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -13417,7 +14126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
@@ -14284,689 +14993,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>44806</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="23">
-        <v>1.96</v>
-      </c>
-      <c r="D2" s="11">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="7">
-        <f>C2*D$27</f>
-        <v>13720</v>
-      </c>
-      <c r="I2" s="7">
-        <f>H2-D$27</f>
-        <v>6720</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>44814</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="23">
-        <v>2.63</v>
-      </c>
-      <c r="D3" s="11">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="7">
-        <f>C3*D$27</f>
-        <v>18410</v>
-      </c>
-      <c r="I3" s="7">
-        <f>H3-D$27</f>
-        <v>11410</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>44822</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="23">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <f>H4-D26</f>
-        <v>-3500</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>44822</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1.95</v>
-      </c>
-      <c r="D5" s="11">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="7">
-        <f>C5*D26</f>
-        <v>6825</v>
-      </c>
-      <c r="I5" s="7">
-        <f>H5-D26</f>
-        <v>3325</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>44811</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1.95</v>
-      </c>
-      <c r="D6" s="11">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:I8" si="0">H6-D$25</f>
-        <v>-2800</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>44814</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1.9</v>
-      </c>
-      <c r="D7" s="11">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="7">
-        <f t="shared" ref="H7:H8" si="1">C7*D$25</f>
-        <v>5320</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="0"/>
-        <v>2520</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>44834</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="23">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="7">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>COUNT(D2:D8)</f>
-        <v>7</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5">
-        <f>D14-D15</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <f>D16/D14*100</f>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <f>1/D19*100</f>
-        <v>48.64489228630994</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <f>SUM(C2:C8)/D14</f>
-        <v>2.0557142857142856</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5">
-        <f>D17-D18</f>
-        <v>22.783679142261491</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5">
-        <f>D29/1</f>
-        <v>20.474999999999998</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="6">
-        <v>100000</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="7">
-        <f>D23/100</f>
-        <v>1000</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="57">
-        <f>D$24*2.8</f>
-        <v>2800</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="55">
-        <f>D$24*3.5</f>
-        <v>3500</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="56">
-        <f>D24*7</f>
-        <v>7000</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="7">
-        <f>SUM(I2:I8)</f>
-        <v>20475</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <f>D28/D23*100</f>
-        <v>20.474999999999998</v>
-      </c>
-      <c r="E29" s="1">
-        <f>D29/100</f>
-        <v>0.20474999999999999</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="F15:G30">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
-      <formula>-240.63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>